--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{933012B0-3D05-4CC4-A9DF-9DBE04BDA793}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5DD92A-179B-494D-89C1-E5D03ACB244E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,26 +60,34 @@
     <t>public</t>
   </si>
   <si>
-    <t>https://t.me/joinchat/HZesgX2L5zcpKvq0</t>
-  </si>
-  <si>
-    <t>https://t.me/joinchat/VTvg_eT6s7Rz-AIj</t>
-  </si>
-  <si>
-    <t>https://t.me/joinchat/RcGGtdG60NynCrJK</t>
-  </si>
-  <si>
     <t>https://t.me/testInteractTool</t>
+  </si>
+  <si>
+    <t>HZesgX2L5zcpKvq0</t>
+  </si>
+  <si>
+    <t>VTvg_eT6s7Rz-AIj</t>
+  </si>
+  <si>
+    <t>RcGGtdG60NynCrJK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,13 +110,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -390,7 +401,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +444,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -450,7 +461,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -467,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -475,7 +486,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-366706375</v>
+        <v>-1001159430667</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -483,11 +494,14 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F1A216F9-6E4F-416D-A369-E232D7965EEB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5DD92A-179B-494D-89C1-E5D03ACB244E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30295AE6-C052-4A55-8E16-88653C633A24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>RcGGtdG60NynCrJK</t>
+  </si>
+  <si>
+    <t>customer_id</t>
   </si>
 </sst>
 </file>
@@ -398,109 +401,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>-1001158850531</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>-1001429987581</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>-1001170310837</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>-1001159430667</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>-1001429987581</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>-1001170310837</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>-1001159430667</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{F1A216F9-6E4F-416D-A369-E232D7965EEB}"/>
+    <hyperlink ref="F5" r:id="rId1" xr:uid="{F1A216F9-6E4F-416D-A369-E232D7965EEB}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{06BFCBF1-8371-4392-9180-77AAC4DD2377}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/groups.xlsx
+++ b/groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\interactive_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055FEF17-2A80-4B07-A9F4-1C9F90999B96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7264675-4898-427B-BDEB-B5C2B0D7E02A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>group_id</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>https://t.me/joinchat/RcGGtdG60NynCrJK</t>
+  </si>
+  <si>
+    <t>https://t.me/joinchat/H9rYoLjUYKtakiYt</t>
+  </si>
+  <si>
+    <t>Test Interact</t>
+  </si>
+  <si>
+    <t>+1 Group Test</t>
+  </si>
+  <si>
+    <t>https://t.me/joinchat/IZk6e7P52S4M0CA6</t>
   </si>
 </sst>
 </file>
@@ -395,16 +407,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -477,6 +489,34 @@
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>-1001274866902</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-563690107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
